--- a/Doc_atual/Análise de eventos.xlsx
+++ b/Doc_atual/Análise de eventos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzzai\Desktop\3_Semestre\OPE\Documentação atual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzzai\Desktop\OPE_Draco\Doc_atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F193768-34C5-43C2-84F7-D5EE5C0502D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21D42990-3424-443C-9144-E91CA2EF4998}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{A30C61F2-0EDC-4A14-BAB1-2CD1809E3157}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Capacidades</t>
   </si>
@@ -133,6 +133,45 @@
   </si>
   <si>
     <t>Controlar Pedido</t>
+  </si>
+  <si>
+    <t>x(8)</t>
+  </si>
+  <si>
+    <t>Divulgar Trabalhos</t>
+  </si>
+  <si>
+    <t>Tatuador Finaliza Trabalho</t>
+  </si>
+  <si>
+    <t>Tatuador Posta um Trabalho Feito</t>
+  </si>
+  <si>
+    <t>Cliente Pede uma Sugestão de Trabalho</t>
+  </si>
+  <si>
+    <t>Cliente Avalia o Resultado</t>
+  </si>
+  <si>
+    <t>Tatuador Solicita Autorização para Divulgar o Trabalho</t>
+  </si>
+  <si>
+    <t>x(14)</t>
+  </si>
+  <si>
+    <t>x(15)</t>
+  </si>
+  <si>
+    <t>Cliente Não Autoriza Divulgação</t>
+  </si>
+  <si>
+    <t>Tatuador Perde a Foto</t>
+  </si>
+  <si>
+    <t>x(16)</t>
+  </si>
+  <si>
+    <t>x(17)</t>
   </si>
 </sst>
 </file>
@@ -217,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -240,6 +279,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -247,7 +306,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -301,9 +360,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -335,22 +391,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Ênfase1" xfId="3" builtinId="31"/>
@@ -675,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3CBCA6-D7DB-40A5-BB84-A35AF694A4B5}">
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -684,7 +737,7 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
@@ -695,22 +748,22 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="28.5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
@@ -737,17 +790,17 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="18">
         <v>1</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="17" t="s">
@@ -760,69 +813,69 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="18">
         <v>2</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="13"/>
       <c r="J4" s="9"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="26"/>
+      <c r="D5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="12"/>
-      <c r="G5" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="18">
         <v>4</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="18">
         <v>5</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="17"/>
@@ -836,12 +889,12 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="18">
         <v>6</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="17" t="s">
@@ -855,12 +908,12 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="18">
         <v>7</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="8"/>
@@ -874,14 +927,14 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="18">
         <v>8</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -895,18 +948,18 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="18">
         <v>9</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -914,12 +967,12 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="18">
         <v>10</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="17" t="s">
@@ -933,162 +986,210 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="11">
         <v>11</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="21"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="11">
         <v>12</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="11">
         <v>13</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11">
+        <v>14</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+    <row r="17" spans="1:12">
+      <c r="A17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="11">
+        <v>15</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="11">
+        <v>16</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="22"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="11">
+        <v>17</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="11">
+        <v>18</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="11">
+        <v>19</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="11">
+        <v>20</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="20"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
@@ -3363,7 +3464,10 @@
       <c r="J185" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A16:A22"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B3:B9"/>

--- a/Doc_atual/Análise de eventos.xlsx
+++ b/Doc_atual/Análise de eventos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzzai\Desktop\OPE_Draco\Doc_atual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{21D42990-3424-443C-9144-E91CA2EF4998}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E40E4710-9568-4DAA-B1A2-09CC40A2895A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{A30C61F2-0EDC-4A14-BAB1-2CD1809E3157}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Capacidades</t>
   </si>
@@ -75,9 +75,6 @@
     <t>x(2)</t>
   </si>
   <si>
-    <t>x(7)</t>
-  </si>
-  <si>
     <t>x(3)</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Cliente solicita uma data/hora para o serviço</t>
   </si>
   <si>
-    <t>Tatuador envia o orçamento para o cliente</t>
-  </si>
-  <si>
     <t>X(4)</t>
   </si>
   <si>
@@ -172,6 +166,9 @@
   </si>
   <si>
     <t>x(17)</t>
+  </si>
+  <si>
+    <t>Cliente solicita orçamento</t>
   </si>
 </sst>
 </file>
@@ -256,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -299,6 +296,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -306,7 +314,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -393,15 +401,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -728,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3CBCA6-D7DB-40A5-BB84-A35AF694A4B5}">
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -748,22 +759,22 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="28.5">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
@@ -790,17 +801,17 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="18">
         <v>1</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="17" t="s">
@@ -813,35 +824,35 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="18">
         <v>2</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E4" s="17"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="F4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="13"/>
       <c r="J4" s="9"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="11">
         <v>3</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="16"/>
@@ -851,16 +862,16 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="18">
         <v>4</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27"/>
@@ -870,18 +881,18 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="18">
         <v>5</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -889,16 +900,16 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="18">
         <v>6</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="10"/>
@@ -908,18 +919,18 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="18">
         <v>7</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -927,18 +938,18 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="18">
         <v>8</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
@@ -948,18 +959,18 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="18">
         <v>9</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -967,16 +978,16 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="18">
         <v>10</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="10"/>
@@ -986,13 +997,13 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="11">
         <v>11</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>15</v>
@@ -1006,64 +1017,64 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32" t="s">
-        <v>34</v>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="11">
         <v>12</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="11">
         <v>13</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
-      <c r="A16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="11">
         <v>14</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -1072,16 +1083,16 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="34"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="11">
         <v>15</v>
       </c>
       <c r="D17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="10"/>
@@ -1092,18 +1103,18 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="34"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="11">
         <v>16</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -1112,33 +1123,33 @@
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="34"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="11">
         <v>17</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="20" t="s">
-        <v>13</v>
-      </c>
+      <c r="J19" s="20"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="34"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="11">
         <v>18</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
@@ -1152,18 +1163,18 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="34"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="11">
         <v>19</v>
       </c>
       <c r="D21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="10"/>
@@ -1174,20 +1185,20 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="34"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="11">
         <v>20</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="1"/>

--- a/Doc_atual/Análise de eventos.xlsx
+++ b/Doc_atual/Análise de eventos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhonatana\Downloads\Documentacao_OPE_Draco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1700646\Downloads\Documentacao_OPE_Draco\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F0CC2CED-0B54-4858-A315-088156D7B657}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -258,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -589,16 +590,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -606,8 +607,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2006C1B5-2B3A-44BE-BA32-99A4DD8383AD}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -636,7 +665,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -648,7 +677,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -695,6 +724,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -730,6 +776,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -881,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -910,22 +973,22 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="49" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="28.5">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
@@ -952,10 +1015,10 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2">
@@ -975,8 +1038,8 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -994,8 +1057,8 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="10">
         <v>3</v>
       </c>
@@ -1013,8 +1076,8 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -1032,8 +1095,8 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -1051,8 +1114,8 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -1070,8 +1133,8 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -1089,8 +1152,8 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="2">
         <v>8</v>
       </c>
@@ -1108,8 +1171,8 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="2">
         <v>9</v>
       </c>
@@ -1127,8 +1190,8 @@
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -1146,8 +1209,8 @@
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="10">
         <v>11</v>
       </c>
@@ -1165,7 +1228,7 @@
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A14" s="47"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1186,8 +1249,8 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="47"/>
-      <c r="B15" s="46" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="49" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="23">
@@ -1207,8 +1270,8 @@
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="23">
         <v>14</v>
       </c>
@@ -1226,10 +1289,10 @@
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="23">
@@ -1249,8 +1312,8 @@
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="23">
         <v>16</v>
       </c>
@@ -1268,8 +1331,8 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="23">
         <v>17</v>
       </c>
@@ -1287,8 +1350,8 @@
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="49" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="23">
@@ -1308,8 +1371,8 @@
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="23">
         <v>19</v>
       </c>
@@ -1328,8 +1391,8 @@
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="23">
         <v>20</v>
       </c>
@@ -1348,8 +1411,8 @@
       <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="23">
         <v>21</v>
       </c>
@@ -1368,10 +1431,10 @@
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="23">
@@ -1392,8 +1455,8 @@
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="23">
         <v>23</v>
       </c>
@@ -1412,8 +1475,8 @@
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="23">
         <v>24</v>
       </c>
@@ -1432,8 +1495,8 @@
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="23">
         <v>25</v>
       </c>
@@ -1452,8 +1515,8 @@
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="49" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="23">
@@ -1474,8 +1537,8 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="23">
         <v>27</v>
       </c>
@@ -1494,10 +1557,10 @@
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="23">
@@ -1518,8 +1581,8 @@
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="23">
         <v>29</v>
       </c>
@@ -1538,8 +1601,8 @@
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="23">
         <v>30</v>
       </c>
@@ -1558,8 +1621,8 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="23">
         <v>31</v>
       </c>
@@ -1578,7 +1641,7 @@
       <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="47"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="52" t="s">
         <v>27</v>
       </c>
@@ -1600,8 +1663,8 @@
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="23">
         <v>33</v>
       </c>
@@ -1620,8 +1683,8 @@
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="23">
         <v>34</v>
       </c>
@@ -1640,8 +1703,8 @@
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="23">
         <v>35</v>
       </c>
@@ -1660,8 +1723,8 @@
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="23">
         <v>36</v>
       </c>
@@ -1680,8 +1743,8 @@
       <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="23">
         <v>37</v>
       </c>
@@ -4532,21 +4595,21 @@
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B39"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A23"/>
     <mergeCell ref="A30:A39"/>
     <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B29"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
